--- a/biology/Botanique/Picramniaceae/Picramniaceae.xlsx
+++ b/biology/Botanique/Picramniaceae/Picramniaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La famille des Picramniaceae est une famille de plantes dicotylédones. Elle comprend 46 espèces réparties en 2 genres.
 Ce sont des arbustes ou de petits arbres, à feuilles alternes, composées, des régions  tropicales du « Nouveau Monde », originaires d'Amérique du Sud, d'Amérique centrale, et des Antilles.
@@ -512,7 +524,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom vient du genre type Picramnia  sorte de mot-valise construit à partir des mots grecs πικρός / pikros, amer, acre, aigu, et θάμνος / thamnos, buisson , arbuste.
 </t>
@@ -543,11 +557,13 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette famille n'existe pas en classification classique qui assigne ces plantes aux Simaroubaceae.
-Pour la classification phylogénétique APG II (2003)[1], la divergence génétique de cette famille se situe à la base du clade des Rosidées. 
-En classification phylogénétique APG III (2009)[2] cette famille est placée sous l'ordre des Picramniales.
+Pour la classification phylogénétique APG II (2003), la divergence génétique de cette famille se situe à la base du clade des Rosidées. 
+En classification phylogénétique APG III (2009) cette famille est placée sous l'ordre des Picramniales.
 </t>
         </is>
       </c>
@@ -576,9 +592,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon NCBI  (2 juin 2010)[3], Angiosperm Phylogeny Website                        (2 juin 2010)[4] et DELTA Angio           (2 juin 2010)[5] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (2 juin 2010), Angiosperm Phylogeny Website                        (2 juin 2010) et DELTA Angio           (2 juin 2010) :
 genre Alvaradoa
 genre Picramnia</t>
         </is>
@@ -608,9 +626,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon NCBI  (2 juin 2010)[3] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (2 juin 2010) :
 genre Alvaradoa
 Alvaradoa amorphoides
 genre Picramnia
